--- a/database/data/data.xlsx
+++ b/database/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private-work\El-Mostakbal-Technology\MoH-web-portal\database\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\private-work\El-Mostakbal-Technology\MoH-web-portal\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E56A69D-C810-4560-8BBE-BA13B1AB4D46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5525F2-37F4-4945-8EB6-09ECB9305893}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="1044" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="15" xr2:uid="{E9CEA021-C221-49B4-838B-3CC0E5561FBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="15" xr2:uid="{E9CEA021-C221-49B4-838B-3CC0E5561FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="ZONE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <sheet name="USER_ROLES" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="825">
   <si>
     <t>مجلس طبي الاسكندرية</t>
   </si>
@@ -2413,6 +2412,114 @@
   </si>
   <si>
     <t>تعديل النظام بالكامل</t>
+  </si>
+  <si>
+    <t>SYSTEM_TABLES_MAINTENANCE</t>
+  </si>
+  <si>
+    <t>صيانة جداول النظام</t>
+  </si>
+  <si>
+    <t>SUPER_USER</t>
+  </si>
+  <si>
+    <t>مدير مقر</t>
+  </si>
+  <si>
+    <t>STATISTIC_REPORTS_VIEWING</t>
+  </si>
+  <si>
+    <t>متابعة التقارير اليومية</t>
+  </si>
+  <si>
+    <t>RESULTS_VIEWING</t>
+  </si>
+  <si>
+    <t>متابعة النتائج</t>
+  </si>
+  <si>
+    <t>RESULTS_PRINTING</t>
+  </si>
+  <si>
+    <t>طباعة النتائج</t>
+  </si>
+  <si>
+    <t>REQUEST_REVIEWING</t>
+  </si>
+  <si>
+    <t>مراجعة الطلبات</t>
+  </si>
+  <si>
+    <t>REQUEST_CONTINUE_REGISTERING</t>
+  </si>
+  <si>
+    <t>استكمال بيانات الطلب</t>
+  </si>
+  <si>
+    <t>REQUEST_APPROVING</t>
+  </si>
+  <si>
+    <t>اعتماد الطلبات</t>
+  </si>
+  <si>
+    <t>PAYMENTS_REGISTRATION</t>
+  </si>
+  <si>
+    <t>الخزينة</t>
+  </si>
+  <si>
+    <t>EYE_REVEAL_RESULT_REGISTERING</t>
+  </si>
+  <si>
+    <t>تسجيل نتيجة كشف الرمد</t>
+  </si>
+  <si>
+    <t>EYE_REVEAL</t>
+  </si>
+  <si>
+    <t>سكرتارية لجنة الرمد</t>
+  </si>
+  <si>
+    <t>DAILY_REPORTS_VIEWING</t>
+  </si>
+  <si>
+    <t>COMMITTEES_REGISTERING</t>
+  </si>
+  <si>
+    <t>تشكيل اللجان و الاعضاء</t>
+  </si>
+  <si>
+    <t>CITIZEN_REQUEST_REGISTERING</t>
+  </si>
+  <si>
+    <t>تسجيل الطلب</t>
+  </si>
+  <si>
+    <t>CITIZENS_REQUESTS_VIEWING</t>
+  </si>
+  <si>
+    <t>البحث العام في بيانات المواطنين والطلبات</t>
+  </si>
+  <si>
+    <t>CITIZENS_DATA_EDITING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعديل وصيانة بيانات المواطنين </t>
+  </si>
+  <si>
+    <t>BONES_REVEAL_RESULT_REGISTERING</t>
+  </si>
+  <si>
+    <t>تسجيل نتيجة كشف العظام</t>
+  </si>
+  <si>
+    <t>BONES_REVEAL</t>
+  </si>
+  <si>
+    <t>سكرتارية لجنة العظام</t>
+  </si>
+  <si>
+    <t>مدير النظام</t>
   </si>
 </sst>
 </file>
@@ -17169,10 +17276,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AFB20-6909-4A13-A2F2-AEAA0B69767D}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F1" sqref="F1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17181,7 +17288,7 @@
     <col min="3" max="3" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -17191,8 +17298,17 @@
       <c r="C1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -17202,8 +17318,17 @@
       <c r="C2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>791</v>
+      </c>
+      <c r="H2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -17213,8 +17338,17 @@
       <c r="C3" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -17224,8 +17358,17 @@
       <c r="C4" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>795</v>
+      </c>
+      <c r="H4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -17235,8 +17378,17 @@
       <c r="C5" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -17246,8 +17398,17 @@
       <c r="C6" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>799</v>
+      </c>
+      <c r="H6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -17257,8 +17418,17 @@
       <c r="C7" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -17268,8 +17438,17 @@
       <c r="C8" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>803</v>
+      </c>
+      <c r="H8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -17279,123 +17458,222 @@
       <c r="C9" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>805</v>
+      </c>
+      <c r="H9" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>807</v>
+      </c>
+      <c r="H10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>809</v>
+      </c>
+      <c r="H11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>811</v>
+      </c>
+      <c r="H12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>812</v>
+      </c>
+      <c r="H13" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>814</v>
+      </c>
+      <c r="H14" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>816</v>
+      </c>
+      <c r="H15" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>818</v>
+      </c>
+      <c r="H16" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>820</v>
+      </c>
+      <c r="H17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>822</v>
+      </c>
+      <c r="H18" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>787</v>
+      </c>
+      <c r="H19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>ROWS(A$12:A38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>ROWS(A$12:A39)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>ROWS(A$12:A40)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>ROWS(A$12:A41)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>ROWS(A$12:A42)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>ROWS(A$12:A43)</f>
         <v>32</v>
@@ -18072,7 +18350,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C8" activeCellId="1" sqref="E18 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
